--- a/biology/Histoire de la zoologie et de la botanique/Fahrettin_Küçük/Fahrettin_Küçük.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fahrettin_Küçük/Fahrettin_Küçük.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fahrettin_K%C3%BC%C3%A7%C3%BCk</t>
+          <t>Fahrettin_Küçük</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fahrettin Küçük est un zoologiste et ichtyologiste turc[1]. Il travaille au sein de la Süleyman Demirel University (en) à Isparta en Turquie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fahrettin Küçük est un zoologiste et ichtyologiste turc. Il travaille au sein de la Süleyman Demirel University (en) à Isparta en Turquie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fahrettin_K%C3%BC%C3%A7%C3%BCk</t>
+          <t>Fahrettin_Küçük</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Quelques publications[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wildekamp, Küçük, Ünlüsayin &amp; Van Neer, 1999 : Species and subspecies of the genus Aphanius Nardo 1897 (Pisces: Cyprinodontidae) in Turkey, Turkish journal of Zoology, vol. 23, n. 1, p. 23-44
 Küçük, 1997 : Antalya Körfezi'ne dökülen akarsuların balık faunası ve bazı ekolojik parametreleri üzerine bir araştırma, Fen Bilimleri Enstitüsü, Süleyman Demirel Üniversitesi
 Küçük &amp; İkiz, 2004 : Fish fauna of streams discharging to Antalya Bay, Ege Journal of Fisheries and Aquatic Sciences, vol. 21, n. 3
-Küçük, Sari, Demi̇r &amp; Gülle,, 2009 : Review of the ichthyofaunal changes in Lake Eğirdir between 1915 and 2007, Turkish Journal of Zoology, vol. 33, n. 3, p. 277-286
+Küçük, Sari, Demi̇r &amp; Gülle 2009 : Review of the ichthyofaunal changes in Lake Eğirdir between 1915 and 2007, Turkish Journal of Zoology, vol. 33, n. 3, p. 277-286
 Küçük, Gümüş, Gülle &amp; Güçlü, 2007 : The fish fauna of the Göksu River (Türkiye): taxonomic and zoogeographic features, Turkish Journal of Fisheries and Aquatic Sciences, vol. 7, n. 1
 Küçük, 2012 : Extinct Endemic Fishes of Turkey: Alburnus akili (Gövce) and Pseudophoxinus handlirschi (Kavinne)(Pisces: Cyprinidae), Turkish Journal of Fisheries and Aquatic Sciences, vol. 12,n. 2</t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fahrettin_K%C3%BC%C3%A7%C3%BCk</t>
+          <t>Fahrettin_Küçük</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Pseudophoxinus fahrettini (un poisson de famille des Cyprinidae) a été nommée en son honneur par Freyhof et Özuluğ en 2010 en reconnaissance de sa contribution à la connaissance des poissons du centre de l'Anatolie.
 </t>
